--- a/x_optimal_vars_leader.xlsx
+++ b/x_optimal_vars_leader.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D601"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -458,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -486,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -528,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -584,10 +584,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -612,10 +612,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,10 +640,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,10 +668,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -682,10 +682,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -766,10 +766,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -808,13 +808,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -822,7 +822,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -864,7 +864,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -878,7 +878,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -892,7 +892,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -906,7 +906,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -920,7 +920,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -934,13 +934,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <v>8</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,7 +948,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -962,10 +962,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -976,10 +976,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C43">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,10 +1032,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1046,10 +1046,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1088,13 +1088,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1102,10 +1102,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,10 +1214,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C60">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C61">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1284,7 +1284,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1298,7 +1298,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1312,7 +1312,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1326,7 +1326,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -1340,13 +1340,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C69">
         <v>7</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1354,7 +1354,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C70">
         <v>8</v>
@@ -1368,7 +1368,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C71">
         <v>9</v>
@@ -1382,10 +1382,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C72">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C73">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1410,10 +1410,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C76">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1452,10 +1452,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1494,10 +1494,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -1550,10 +1550,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C85">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -1592,10 +1592,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -1634,10 +1634,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C91">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -1662,7 +1662,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1690,7 +1690,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -1704,7 +1704,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -1718,7 +1718,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -1732,7 +1732,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -1746,7 +1746,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C98">
         <v>6</v>
@@ -1760,7 +1760,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C99">
         <v>7</v>
@@ -1774,13 +1774,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C100">
         <v>8</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1788,7 +1788,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C101">
         <v>9</v>
@@ -1802,10 +1802,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C105">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C106">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1872,10 +1872,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -1886,10 +1886,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1914,10 +1914,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -1928,10 +1928,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -1942,10 +1942,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -1984,10 +1984,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C115">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -1998,10 +1998,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C116">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C117">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2026,10 +2026,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C118">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2040,13 +2040,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C119">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2054,10 +2054,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C120">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2068,13 +2068,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C121">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2082,7 +2082,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -2110,7 +2110,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -2124,7 +2124,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -2138,7 +2138,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C126">
         <v>4</v>
@@ -2152,7 +2152,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -2166,7 +2166,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C128">
         <v>6</v>
@@ -2180,13 +2180,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C129">
         <v>7</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2194,7 +2194,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C130">
         <v>8</v>
@@ -2208,7 +2208,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C131">
         <v>9</v>
@@ -2225,7 +2225,7 @@
         <v>23</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>23</v>
       </c>
       <c r="C133">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>23</v>
       </c>
       <c r="C134">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>23</v>
       </c>
       <c r="C135">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>23</v>
       </c>
       <c r="C136">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2292,10 +2292,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -2306,10 +2306,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2348,10 +2348,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>24</v>
       </c>
       <c r="C142">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>24</v>
       </c>
       <c r="C143">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>24</v>
       </c>
       <c r="C144">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>24</v>
       </c>
       <c r="C145">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>24</v>
       </c>
       <c r="C146">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>24</v>
       </c>
       <c r="C147">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>24</v>
       </c>
       <c r="C148">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>24</v>
       </c>
       <c r="C149">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>24</v>
       </c>
       <c r="C150">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>24</v>
       </c>
       <c r="C151">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -2606,7 +2606,7 @@
         <v>7</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2642,10 +2642,10 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C162">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -2656,10 +2656,10 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C163">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -2670,10 +2670,10 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C164">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C165">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -2698,13 +2698,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C166">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2715,7 +2715,7 @@
         <v>26</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -2729,10 +2729,10 @@
         <v>26</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2743,7 +2743,7 @@
         <v>26</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>26</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -2771,10 +2771,10 @@
         <v>26</v>
       </c>
       <c r="C171">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2782,10 +2782,10 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C172">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -2796,10 +2796,10 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C173">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -2810,10 +2810,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C174">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C175">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -2838,10 +2838,10 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C176">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -2852,10 +2852,10 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C177">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -2866,10 +2866,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C178">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C179">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C180">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2908,10 +2908,10 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C181">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -2936,13 +2936,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2950,7 +2950,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C184">
         <v>2</v>
@@ -2964,7 +2964,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C185">
         <v>3</v>
@@ -2978,7 +2978,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C186">
         <v>4</v>
@@ -2992,7 +2992,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C187">
         <v>5</v>
@@ -3006,7 +3006,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C188">
         <v>6</v>
@@ -3020,7 +3020,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C189">
         <v>7</v>
@@ -3034,13 +3034,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C190">
         <v>8</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3048,7 +3048,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C191">
         <v>9</v>
@@ -3062,10 +3062,10 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C192">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C193">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -3090,10 +3090,10 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C194">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -3104,10 +3104,10 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C195">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -3118,10 +3118,10 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C196">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -3132,10 +3132,10 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3160,10 +3160,10 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -3174,10 +3174,10 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C200">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -3188,13 +3188,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C201">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3202,10 +3202,10 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C202">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -3216,10 +3216,10 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C203">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -3230,10 +3230,10 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C204">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -3244,10 +3244,10 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C205">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -3258,10 +3258,10 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C206">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C207">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C208">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -3300,13 +3300,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C209">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3314,10 +3314,10 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C210">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C211">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -3370,7 +3370,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C214">
         <v>2</v>
@@ -3384,7 +3384,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C215">
         <v>3</v>
@@ -3398,7 +3398,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C216">
         <v>4</v>
@@ -3412,7 +3412,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C217">
         <v>5</v>
@@ -3426,7 +3426,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C218">
         <v>6</v>
@@ -3440,7 +3440,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C219">
         <v>7</v>
@@ -3454,13 +3454,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C220">
         <v>8</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3468,7 +3468,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C221">
         <v>9</v>
@@ -3482,10 +3482,10 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C222">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -3496,10 +3496,10 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C223">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C224">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -3524,10 +3524,10 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C225">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -3538,13 +3538,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C226">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3552,10 +3552,10 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -3566,13 +3566,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3594,10 +3594,10 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C230">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C231">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -3622,10 +3622,10 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C232">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C233">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -3650,10 +3650,10 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C234">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C235">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C236">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -3692,10 +3692,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C237">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C238">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C239">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3734,10 +3734,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C240">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C241">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -3776,13 +3776,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3790,7 +3790,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C244">
         <v>2</v>
@@ -3804,7 +3804,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C245">
         <v>3</v>
@@ -3818,7 +3818,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C246">
         <v>4</v>
@@ -3832,7 +3832,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C247">
         <v>5</v>
@@ -3846,7 +3846,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C248">
         <v>6</v>
@@ -3860,13 +3860,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C249">
         <v>7</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3874,7 +3874,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C250">
         <v>8</v>
@@ -3888,7 +3888,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C251">
         <v>9</v>
@@ -3902,10 +3902,10 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C252">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -3916,10 +3916,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C253">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -3930,10 +3930,10 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C254">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -3944,10 +3944,10 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C255">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -3958,10 +3958,10 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C256">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -3972,10 +3972,10 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -4000,10 +4000,10 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C259">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -4014,10 +4014,10 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C260">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C261">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4042,10 +4042,10 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C262">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -4056,10 +4056,10 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C263">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C264">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C265">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -4098,10 +4098,10 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C266">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -4112,10 +4112,10 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C267">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -4126,10 +4126,10 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C268">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C269">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -4154,13 +4154,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C270">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C271">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4182,7 +4182,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -4210,7 +4210,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C274">
         <v>2</v>
@@ -4224,7 +4224,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C275">
         <v>3</v>
@@ -4238,7 +4238,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C276">
         <v>4</v>
@@ -4252,7 +4252,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C277">
         <v>5</v>
@@ -4266,7 +4266,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C278">
         <v>6</v>
@@ -4280,13 +4280,13 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C279">
         <v>7</v>
       </c>
       <c r="D279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4294,7 +4294,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C280">
         <v>8</v>
@@ -4308,7 +4308,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C281">
         <v>9</v>
@@ -4322,10 +4322,10 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C282">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -4336,10 +4336,10 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C283">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -4350,10 +4350,10 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C284">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -4364,10 +4364,10 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C285">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -4378,13 +4378,13 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C286">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4392,10 +4392,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C287">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -4406,13 +4406,13 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C289">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4434,10 +4434,10 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C290">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -4448,10 +4448,10 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C291">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -4462,10 +4462,10 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C292">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -4476,10 +4476,10 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C293">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -4490,10 +4490,10 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C294">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -4504,10 +4504,10 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C295">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -4518,10 +4518,10 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C296">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -4532,10 +4532,10 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C297">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -4546,10 +4546,10 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C298">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -4560,13 +4560,13 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C299">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4574,10 +4574,10 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C300">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -4588,10 +4588,10 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C301">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -4630,7 +4630,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C304">
         <v>2</v>
@@ -4644,7 +4644,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C305">
         <v>3</v>
@@ -4658,7 +4658,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C306">
         <v>4</v>
@@ -4672,7 +4672,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C307">
         <v>5</v>
@@ -4686,7 +4686,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C308">
         <v>6</v>
@@ -4700,7 +4700,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C309">
         <v>7</v>
@@ -4714,7 +4714,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C310">
         <v>8</v>
@@ -4728,13 +4728,13 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C311">
         <v>9</v>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4742,10 +4742,10 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C312">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -4756,10 +4756,10 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C313">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -4770,10 +4770,10 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C314">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -4784,10 +4784,10 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C315">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -4798,13 +4798,13 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C316">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4812,10 +4812,10 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C317">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -4826,13 +4826,13 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4840,13 +4840,13 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C319">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4854,10 +4854,10 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C320">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -4868,10 +4868,10 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C321">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C322">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -4896,10 +4896,10 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C323">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C324">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -4924,10 +4924,10 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C325">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -4938,10 +4938,10 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C326">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -4952,10 +4952,10 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C327">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -4966,10 +4966,10 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C328">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -4980,10 +4980,10 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C329">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -4994,13 +4994,13 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C330">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5008,10 +5008,10 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C331">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -5022,7 +5022,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -5036,7 +5036,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -5050,7 +5050,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C334">
         <v>2</v>
@@ -5064,7 +5064,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C335">
         <v>3</v>
@@ -5078,7 +5078,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C336">
         <v>4</v>
@@ -5092,7 +5092,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C337">
         <v>5</v>
@@ -5106,7 +5106,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C338">
         <v>6</v>
@@ -5120,13 +5120,13 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C339">
         <v>7</v>
       </c>
       <c r="D339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5134,7 +5134,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C340">
         <v>8</v>
@@ -5148,7 +5148,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C341">
         <v>9</v>
@@ -5162,10 +5162,10 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C342">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -5176,10 +5176,10 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C343">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D343">
         <v>0</v>
@@ -5190,10 +5190,10 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C344">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -5204,10 +5204,10 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C345">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C346">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5232,10 +5232,10 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C347">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D347">
         <v>0</v>
@@ -5246,10 +5246,10 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C348">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -5260,10 +5260,10 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C349">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -5274,13 +5274,13 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C350">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5288,10 +5288,10 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C351">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -5302,10 +5302,10 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C352">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -5316,10 +5316,10 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C353">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -5330,10 +5330,10 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C354">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D354">
         <v>0</v>
@@ -5344,10 +5344,10 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C355">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -5358,10 +5358,10 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C356">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D356">
         <v>0</v>
@@ -5372,10 +5372,10 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C357">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -5386,10 +5386,10 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C358">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -5400,10 +5400,10 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C359">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D359">
         <v>0</v>
@@ -5414,13 +5414,13 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C360">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5428,13 +5428,13 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C361">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5442,7 +5442,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -5456,7 +5456,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -5470,7 +5470,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C364">
         <v>2</v>
@@ -5484,7 +5484,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C365">
         <v>3</v>
@@ -5498,7 +5498,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C366">
         <v>4</v>
@@ -5512,7 +5512,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C367">
         <v>5</v>
@@ -5526,7 +5526,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C368">
         <v>6</v>
@@ -5540,7 +5540,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C369">
         <v>7</v>
@@ -5554,7 +5554,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C370">
         <v>8</v>
@@ -5568,13 +5568,13 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C371">
         <v>9</v>
       </c>
       <c r="D371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5582,10 +5582,10 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C372">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D372">
         <v>0</v>
@@ -5596,10 +5596,10 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C373">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -5610,10 +5610,10 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C374">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D374">
         <v>0</v>
@@ -5624,10 +5624,10 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C375">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D375">
         <v>0</v>
@@ -5638,13 +5638,13 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C376">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5652,10 +5652,10 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C377">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D377">
         <v>0</v>
@@ -5666,10 +5666,10 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C378">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D378">
         <v>0</v>
@@ -5680,13 +5680,13 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C379">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5694,10 +5694,10 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C380">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D380">
         <v>0</v>
@@ -5708,10 +5708,10 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C381">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D381">
         <v>0</v>
@@ -5722,10 +5722,10 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C382">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D382">
         <v>0</v>
@@ -5736,10 +5736,10 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C383">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D383">
         <v>0</v>
@@ -5750,10 +5750,10 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C384">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -5764,10 +5764,10 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C385">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D385">
         <v>0</v>
@@ -5778,10 +5778,10 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C386">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D386">
         <v>0</v>
@@ -5792,10 +5792,10 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C387">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -5806,10 +5806,10 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C388">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D388">
         <v>0</v>
@@ -5820,13 +5820,13 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C389">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5834,10 +5834,10 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C390">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -5848,13 +5848,13 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C391">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5862,7 +5862,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C392">
         <v>0</v>
@@ -5876,7 +5876,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -5890,7 +5890,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C394">
         <v>2</v>
@@ -5904,7 +5904,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C395">
         <v>3</v>
@@ -5918,7 +5918,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C396">
         <v>4</v>
@@ -5932,7 +5932,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C397">
         <v>5</v>
@@ -5946,7 +5946,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C398">
         <v>6</v>
@@ -5960,7 +5960,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C399">
         <v>7</v>
@@ -5974,7 +5974,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C400">
         <v>8</v>
@@ -5988,2812 +5988,12 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C401">
         <v>9</v>
       </c>
       <c r="D401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4">
-      <c r="A402" s="1">
-        <v>400</v>
-      </c>
-      <c r="B402">
-        <v>41</v>
-      </c>
-      <c r="C402">
-        <v>10</v>
-      </c>
-      <c r="D402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="1">
-        <v>401</v>
-      </c>
-      <c r="B403">
-        <v>41</v>
-      </c>
-      <c r="C403">
-        <v>11</v>
-      </c>
-      <c r="D403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="1">
-        <v>402</v>
-      </c>
-      <c r="B404">
-        <v>41</v>
-      </c>
-      <c r="C404">
-        <v>12</v>
-      </c>
-      <c r="D404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="1">
-        <v>403</v>
-      </c>
-      <c r="B405">
-        <v>41</v>
-      </c>
-      <c r="C405">
-        <v>13</v>
-      </c>
-      <c r="D405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="1">
-        <v>404</v>
-      </c>
-      <c r="B406">
-        <v>41</v>
-      </c>
-      <c r="C406">
-        <v>14</v>
-      </c>
-      <c r="D406">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="1">
-        <v>405</v>
-      </c>
-      <c r="B407">
-        <v>42</v>
-      </c>
-      <c r="C407">
-        <v>0</v>
-      </c>
-      <c r="D407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="1">
-        <v>406</v>
-      </c>
-      <c r="B408">
-        <v>42</v>
-      </c>
-      <c r="C408">
-        <v>1</v>
-      </c>
-      <c r="D408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="1">
-        <v>407</v>
-      </c>
-      <c r="B409">
-        <v>42</v>
-      </c>
-      <c r="C409">
-        <v>2</v>
-      </c>
-      <c r="D409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="1">
-        <v>408</v>
-      </c>
-      <c r="B410">
-        <v>42</v>
-      </c>
-      <c r="C410">
-        <v>3</v>
-      </c>
-      <c r="D410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="1">
-        <v>409</v>
-      </c>
-      <c r="B411">
-        <v>42</v>
-      </c>
-      <c r="C411">
-        <v>4</v>
-      </c>
-      <c r="D411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="1">
-        <v>410</v>
-      </c>
-      <c r="B412">
-        <v>42</v>
-      </c>
-      <c r="C412">
-        <v>5</v>
-      </c>
-      <c r="D412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="1">
-        <v>411</v>
-      </c>
-      <c r="B413">
-        <v>42</v>
-      </c>
-      <c r="C413">
-        <v>6</v>
-      </c>
-      <c r="D413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="1">
-        <v>412</v>
-      </c>
-      <c r="B414">
-        <v>42</v>
-      </c>
-      <c r="C414">
-        <v>7</v>
-      </c>
-      <c r="D414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="1">
-        <v>413</v>
-      </c>
-      <c r="B415">
-        <v>42</v>
-      </c>
-      <c r="C415">
-        <v>8</v>
-      </c>
-      <c r="D415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="1">
-        <v>414</v>
-      </c>
-      <c r="B416">
-        <v>42</v>
-      </c>
-      <c r="C416">
-        <v>9</v>
-      </c>
-      <c r="D416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="1">
-        <v>415</v>
-      </c>
-      <c r="B417">
-        <v>42</v>
-      </c>
-      <c r="C417">
-        <v>10</v>
-      </c>
-      <c r="D417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="1">
-        <v>416</v>
-      </c>
-      <c r="B418">
-        <v>42</v>
-      </c>
-      <c r="C418">
-        <v>11</v>
-      </c>
-      <c r="D418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="1">
-        <v>417</v>
-      </c>
-      <c r="B419">
-        <v>42</v>
-      </c>
-      <c r="C419">
-        <v>12</v>
-      </c>
-      <c r="D419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="1">
-        <v>418</v>
-      </c>
-      <c r="B420">
-        <v>42</v>
-      </c>
-      <c r="C420">
-        <v>13</v>
-      </c>
-      <c r="D420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="1">
-        <v>419</v>
-      </c>
-      <c r="B421">
-        <v>42</v>
-      </c>
-      <c r="C421">
-        <v>14</v>
-      </c>
-      <c r="D421">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="1">
-        <v>420</v>
-      </c>
-      <c r="B422">
-        <v>43</v>
-      </c>
-      <c r="C422">
-        <v>0</v>
-      </c>
-      <c r="D422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="1">
-        <v>421</v>
-      </c>
-      <c r="B423">
-        <v>43</v>
-      </c>
-      <c r="C423">
-        <v>1</v>
-      </c>
-      <c r="D423">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="1">
-        <v>422</v>
-      </c>
-      <c r="B424">
-        <v>43</v>
-      </c>
-      <c r="C424">
-        <v>2</v>
-      </c>
-      <c r="D424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="1">
-        <v>423</v>
-      </c>
-      <c r="B425">
-        <v>43</v>
-      </c>
-      <c r="C425">
-        <v>3</v>
-      </c>
-      <c r="D425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="1">
-        <v>424</v>
-      </c>
-      <c r="B426">
-        <v>43</v>
-      </c>
-      <c r="C426">
-        <v>4</v>
-      </c>
-      <c r="D426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="1">
-        <v>425</v>
-      </c>
-      <c r="B427">
-        <v>43</v>
-      </c>
-      <c r="C427">
-        <v>5</v>
-      </c>
-      <c r="D427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="1">
-        <v>426</v>
-      </c>
-      <c r="B428">
-        <v>43</v>
-      </c>
-      <c r="C428">
-        <v>6</v>
-      </c>
-      <c r="D428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="1">
-        <v>427</v>
-      </c>
-      <c r="B429">
-        <v>43</v>
-      </c>
-      <c r="C429">
-        <v>7</v>
-      </c>
-      <c r="D429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="1">
-        <v>428</v>
-      </c>
-      <c r="B430">
-        <v>43</v>
-      </c>
-      <c r="C430">
-        <v>8</v>
-      </c>
-      <c r="D430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="1">
-        <v>429</v>
-      </c>
-      <c r="B431">
-        <v>43</v>
-      </c>
-      <c r="C431">
-        <v>9</v>
-      </c>
-      <c r="D431">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="1">
-        <v>430</v>
-      </c>
-      <c r="B432">
-        <v>43</v>
-      </c>
-      <c r="C432">
-        <v>10</v>
-      </c>
-      <c r="D432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="1">
-        <v>431</v>
-      </c>
-      <c r="B433">
-        <v>43</v>
-      </c>
-      <c r="C433">
-        <v>11</v>
-      </c>
-      <c r="D433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="1">
-        <v>432</v>
-      </c>
-      <c r="B434">
-        <v>43</v>
-      </c>
-      <c r="C434">
-        <v>12</v>
-      </c>
-      <c r="D434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="1">
-        <v>433</v>
-      </c>
-      <c r="B435">
-        <v>43</v>
-      </c>
-      <c r="C435">
-        <v>13</v>
-      </c>
-      <c r="D435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="1">
-        <v>434</v>
-      </c>
-      <c r="B436">
-        <v>43</v>
-      </c>
-      <c r="C436">
-        <v>14</v>
-      </c>
-      <c r="D436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="1">
-        <v>435</v>
-      </c>
-      <c r="B437">
-        <v>44</v>
-      </c>
-      <c r="C437">
-        <v>0</v>
-      </c>
-      <c r="D437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="1">
-        <v>436</v>
-      </c>
-      <c r="B438">
-        <v>44</v>
-      </c>
-      <c r="C438">
-        <v>1</v>
-      </c>
-      <c r="D438">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="1">
-        <v>437</v>
-      </c>
-      <c r="B439">
-        <v>44</v>
-      </c>
-      <c r="C439">
-        <v>2</v>
-      </c>
-      <c r="D439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="1">
-        <v>438</v>
-      </c>
-      <c r="B440">
-        <v>44</v>
-      </c>
-      <c r="C440">
-        <v>3</v>
-      </c>
-      <c r="D440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="1">
-        <v>439</v>
-      </c>
-      <c r="B441">
-        <v>44</v>
-      </c>
-      <c r="C441">
-        <v>4</v>
-      </c>
-      <c r="D441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="1">
-        <v>440</v>
-      </c>
-      <c r="B442">
-        <v>44</v>
-      </c>
-      <c r="C442">
-        <v>5</v>
-      </c>
-      <c r="D442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="1">
-        <v>441</v>
-      </c>
-      <c r="B443">
-        <v>44</v>
-      </c>
-      <c r="C443">
-        <v>6</v>
-      </c>
-      <c r="D443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="1">
-        <v>442</v>
-      </c>
-      <c r="B444">
-        <v>44</v>
-      </c>
-      <c r="C444">
-        <v>7</v>
-      </c>
-      <c r="D444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4">
-      <c r="A445" s="1">
-        <v>443</v>
-      </c>
-      <c r="B445">
-        <v>44</v>
-      </c>
-      <c r="C445">
-        <v>8</v>
-      </c>
-      <c r="D445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="1">
-        <v>444</v>
-      </c>
-      <c r="B446">
-        <v>44</v>
-      </c>
-      <c r="C446">
-        <v>9</v>
-      </c>
-      <c r="D446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4">
-      <c r="A447" s="1">
-        <v>445</v>
-      </c>
-      <c r="B447">
-        <v>44</v>
-      </c>
-      <c r="C447">
-        <v>10</v>
-      </c>
-      <c r="D447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4">
-      <c r="A448" s="1">
-        <v>446</v>
-      </c>
-      <c r="B448">
-        <v>44</v>
-      </c>
-      <c r="C448">
-        <v>11</v>
-      </c>
-      <c r="D448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="1">
-        <v>447</v>
-      </c>
-      <c r="B449">
-        <v>44</v>
-      </c>
-      <c r="C449">
-        <v>12</v>
-      </c>
-      <c r="D449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="1">
-        <v>448</v>
-      </c>
-      <c r="B450">
-        <v>44</v>
-      </c>
-      <c r="C450">
-        <v>13</v>
-      </c>
-      <c r="D450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="1">
-        <v>449</v>
-      </c>
-      <c r="B451">
-        <v>44</v>
-      </c>
-      <c r="C451">
-        <v>14</v>
-      </c>
-      <c r="D451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="1">
-        <v>450</v>
-      </c>
-      <c r="B452">
-        <v>45</v>
-      </c>
-      <c r="C452">
-        <v>0</v>
-      </c>
-      <c r="D452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
-      <c r="A453" s="1">
-        <v>451</v>
-      </c>
-      <c r="B453">
-        <v>45</v>
-      </c>
-      <c r="C453">
-        <v>1</v>
-      </c>
-      <c r="D453">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="1">
-        <v>452</v>
-      </c>
-      <c r="B454">
-        <v>45</v>
-      </c>
-      <c r="C454">
-        <v>2</v>
-      </c>
-      <c r="D454">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="1">
-        <v>453</v>
-      </c>
-      <c r="B455">
-        <v>45</v>
-      </c>
-      <c r="C455">
-        <v>3</v>
-      </c>
-      <c r="D455">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="1">
-        <v>454</v>
-      </c>
-      <c r="B456">
-        <v>45</v>
-      </c>
-      <c r="C456">
-        <v>4</v>
-      </c>
-      <c r="D456">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="1">
-        <v>455</v>
-      </c>
-      <c r="B457">
-        <v>45</v>
-      </c>
-      <c r="C457">
-        <v>5</v>
-      </c>
-      <c r="D457">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4">
-      <c r="A458" s="1">
-        <v>456</v>
-      </c>
-      <c r="B458">
-        <v>45</v>
-      </c>
-      <c r="C458">
-        <v>6</v>
-      </c>
-      <c r="D458">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="1">
-        <v>457</v>
-      </c>
-      <c r="B459">
-        <v>45</v>
-      </c>
-      <c r="C459">
-        <v>7</v>
-      </c>
-      <c r="D459">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="1">
-        <v>458</v>
-      </c>
-      <c r="B460">
-        <v>45</v>
-      </c>
-      <c r="C460">
-        <v>8</v>
-      </c>
-      <c r="D460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="1">
-        <v>459</v>
-      </c>
-      <c r="B461">
-        <v>45</v>
-      </c>
-      <c r="C461">
-        <v>9</v>
-      </c>
-      <c r="D461">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="1">
-        <v>460</v>
-      </c>
-      <c r="B462">
-        <v>45</v>
-      </c>
-      <c r="C462">
-        <v>10</v>
-      </c>
-      <c r="D462">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="1">
-        <v>461</v>
-      </c>
-      <c r="B463">
-        <v>45</v>
-      </c>
-      <c r="C463">
-        <v>11</v>
-      </c>
-      <c r="D463">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="1">
-        <v>462</v>
-      </c>
-      <c r="B464">
-        <v>45</v>
-      </c>
-      <c r="C464">
-        <v>12</v>
-      </c>
-      <c r="D464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="1">
-        <v>463</v>
-      </c>
-      <c r="B465">
-        <v>45</v>
-      </c>
-      <c r="C465">
-        <v>13</v>
-      </c>
-      <c r="D465">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4">
-      <c r="A466" s="1">
-        <v>464</v>
-      </c>
-      <c r="B466">
-        <v>45</v>
-      </c>
-      <c r="C466">
-        <v>14</v>
-      </c>
-      <c r="D466">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="1">
-        <v>465</v>
-      </c>
-      <c r="B467">
-        <v>46</v>
-      </c>
-      <c r="C467">
-        <v>0</v>
-      </c>
-      <c r="D467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="1">
-        <v>466</v>
-      </c>
-      <c r="B468">
-        <v>46</v>
-      </c>
-      <c r="C468">
-        <v>1</v>
-      </c>
-      <c r="D468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="1">
-        <v>467</v>
-      </c>
-      <c r="B469">
-        <v>46</v>
-      </c>
-      <c r="C469">
-        <v>2</v>
-      </c>
-      <c r="D469">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4">
-      <c r="A470" s="1">
-        <v>468</v>
-      </c>
-      <c r="B470">
-        <v>46</v>
-      </c>
-      <c r="C470">
-        <v>3</v>
-      </c>
-      <c r="D470">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4">
-      <c r="A471" s="1">
-        <v>469</v>
-      </c>
-      <c r="B471">
-        <v>46</v>
-      </c>
-      <c r="C471">
-        <v>4</v>
-      </c>
-      <c r="D471">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="1">
-        <v>470</v>
-      </c>
-      <c r="B472">
-        <v>46</v>
-      </c>
-      <c r="C472">
-        <v>5</v>
-      </c>
-      <c r="D472">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4">
-      <c r="A473" s="1">
-        <v>471</v>
-      </c>
-      <c r="B473">
-        <v>46</v>
-      </c>
-      <c r="C473">
-        <v>6</v>
-      </c>
-      <c r="D473">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4">
-      <c r="A474" s="1">
-        <v>472</v>
-      </c>
-      <c r="B474">
-        <v>46</v>
-      </c>
-      <c r="C474">
-        <v>7</v>
-      </c>
-      <c r="D474">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4">
-      <c r="A475" s="1">
-        <v>473</v>
-      </c>
-      <c r="B475">
-        <v>46</v>
-      </c>
-      <c r="C475">
-        <v>8</v>
-      </c>
-      <c r="D475">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4">
-      <c r="A476" s="1">
-        <v>474</v>
-      </c>
-      <c r="B476">
-        <v>46</v>
-      </c>
-      <c r="C476">
-        <v>9</v>
-      </c>
-      <c r="D476">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4">
-      <c r="A477" s="1">
-        <v>475</v>
-      </c>
-      <c r="B477">
-        <v>46</v>
-      </c>
-      <c r="C477">
-        <v>10</v>
-      </c>
-      <c r="D477">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
-      <c r="A478" s="1">
-        <v>476</v>
-      </c>
-      <c r="B478">
-        <v>46</v>
-      </c>
-      <c r="C478">
-        <v>11</v>
-      </c>
-      <c r="D478">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4">
-      <c r="A479" s="1">
-        <v>477</v>
-      </c>
-      <c r="B479">
-        <v>46</v>
-      </c>
-      <c r="C479">
-        <v>12</v>
-      </c>
-      <c r="D479">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
-      <c r="A480" s="1">
-        <v>478</v>
-      </c>
-      <c r="B480">
-        <v>46</v>
-      </c>
-      <c r="C480">
-        <v>13</v>
-      </c>
-      <c r="D480">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
-      <c r="A481" s="1">
-        <v>479</v>
-      </c>
-      <c r="B481">
-        <v>46</v>
-      </c>
-      <c r="C481">
-        <v>14</v>
-      </c>
-      <c r="D481">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4">
-      <c r="A482" s="1">
-        <v>480</v>
-      </c>
-      <c r="B482">
-        <v>47</v>
-      </c>
-      <c r="C482">
-        <v>0</v>
-      </c>
-      <c r="D482">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4">
-      <c r="A483" s="1">
-        <v>481</v>
-      </c>
-      <c r="B483">
-        <v>47</v>
-      </c>
-      <c r="C483">
-        <v>1</v>
-      </c>
-      <c r="D483">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4">
-      <c r="A484" s="1">
-        <v>482</v>
-      </c>
-      <c r="B484">
-        <v>47</v>
-      </c>
-      <c r="C484">
-        <v>2</v>
-      </c>
-      <c r="D484">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4">
-      <c r="A485" s="1">
-        <v>483</v>
-      </c>
-      <c r="B485">
-        <v>47</v>
-      </c>
-      <c r="C485">
-        <v>3</v>
-      </c>
-      <c r="D485">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4">
-      <c r="A486" s="1">
-        <v>484</v>
-      </c>
-      <c r="B486">
-        <v>47</v>
-      </c>
-      <c r="C486">
-        <v>4</v>
-      </c>
-      <c r="D486">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="1">
-        <v>485</v>
-      </c>
-      <c r="B487">
-        <v>47</v>
-      </c>
-      <c r="C487">
-        <v>5</v>
-      </c>
-      <c r="D487">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="1">
-        <v>486</v>
-      </c>
-      <c r="B488">
-        <v>47</v>
-      </c>
-      <c r="C488">
-        <v>6</v>
-      </c>
-      <c r="D488">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="1">
-        <v>487</v>
-      </c>
-      <c r="B489">
-        <v>47</v>
-      </c>
-      <c r="C489">
-        <v>7</v>
-      </c>
-      <c r="D489">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="1">
-        <v>488</v>
-      </c>
-      <c r="B490">
-        <v>47</v>
-      </c>
-      <c r="C490">
-        <v>8</v>
-      </c>
-      <c r="D490">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4">
-      <c r="A491" s="1">
-        <v>489</v>
-      </c>
-      <c r="B491">
-        <v>47</v>
-      </c>
-      <c r="C491">
-        <v>9</v>
-      </c>
-      <c r="D491">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="1">
-        <v>490</v>
-      </c>
-      <c r="B492">
-        <v>47</v>
-      </c>
-      <c r="C492">
-        <v>10</v>
-      </c>
-      <c r="D492">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="1">
-        <v>491</v>
-      </c>
-      <c r="B493">
-        <v>47</v>
-      </c>
-      <c r="C493">
-        <v>11</v>
-      </c>
-      <c r="D493">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="1">
-        <v>492</v>
-      </c>
-      <c r="B494">
-        <v>47</v>
-      </c>
-      <c r="C494">
-        <v>12</v>
-      </c>
-      <c r="D494">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="1">
-        <v>493</v>
-      </c>
-      <c r="B495">
-        <v>47</v>
-      </c>
-      <c r="C495">
-        <v>13</v>
-      </c>
-      <c r="D495">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="1">
-        <v>494</v>
-      </c>
-      <c r="B496">
-        <v>47</v>
-      </c>
-      <c r="C496">
-        <v>14</v>
-      </c>
-      <c r="D496">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="1">
-        <v>495</v>
-      </c>
-      <c r="B497">
-        <v>48</v>
-      </c>
-      <c r="C497">
-        <v>0</v>
-      </c>
-      <c r="D497">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="1">
-        <v>496</v>
-      </c>
-      <c r="B498">
-        <v>48</v>
-      </c>
-      <c r="C498">
-        <v>1</v>
-      </c>
-      <c r="D498">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="1">
-        <v>497</v>
-      </c>
-      <c r="B499">
-        <v>48</v>
-      </c>
-      <c r="C499">
-        <v>2</v>
-      </c>
-      <c r="D499">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4">
-      <c r="A500" s="1">
-        <v>498</v>
-      </c>
-      <c r="B500">
-        <v>48</v>
-      </c>
-      <c r="C500">
-        <v>3</v>
-      </c>
-      <c r="D500">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4">
-      <c r="A501" s="1">
-        <v>499</v>
-      </c>
-      <c r="B501">
-        <v>48</v>
-      </c>
-      <c r="C501">
-        <v>4</v>
-      </c>
-      <c r="D501">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4">
-      <c r="A502" s="1">
-        <v>500</v>
-      </c>
-      <c r="B502">
-        <v>48</v>
-      </c>
-      <c r="C502">
-        <v>5</v>
-      </c>
-      <c r="D502">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4">
-      <c r="A503" s="1">
-        <v>501</v>
-      </c>
-      <c r="B503">
-        <v>48</v>
-      </c>
-      <c r="C503">
-        <v>6</v>
-      </c>
-      <c r="D503">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4">
-      <c r="A504" s="1">
-        <v>502</v>
-      </c>
-      <c r="B504">
-        <v>48</v>
-      </c>
-      <c r="C504">
-        <v>7</v>
-      </c>
-      <c r="D504">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4">
-      <c r="A505" s="1">
-        <v>503</v>
-      </c>
-      <c r="B505">
-        <v>48</v>
-      </c>
-      <c r="C505">
-        <v>8</v>
-      </c>
-      <c r="D505">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4">
-      <c r="A506" s="1">
-        <v>504</v>
-      </c>
-      <c r="B506">
-        <v>48</v>
-      </c>
-      <c r="C506">
-        <v>9</v>
-      </c>
-      <c r="D506">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4">
-      <c r="A507" s="1">
-        <v>505</v>
-      </c>
-      <c r="B507">
-        <v>48</v>
-      </c>
-      <c r="C507">
-        <v>10</v>
-      </c>
-      <c r="D507">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4">
-      <c r="A508" s="1">
-        <v>506</v>
-      </c>
-      <c r="B508">
-        <v>48</v>
-      </c>
-      <c r="C508">
-        <v>11</v>
-      </c>
-      <c r="D508">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4">
-      <c r="A509" s="1">
-        <v>507</v>
-      </c>
-      <c r="B509">
-        <v>48</v>
-      </c>
-      <c r="C509">
-        <v>12</v>
-      </c>
-      <c r="D509">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4">
-      <c r="A510" s="1">
-        <v>508</v>
-      </c>
-      <c r="B510">
-        <v>48</v>
-      </c>
-      <c r="C510">
-        <v>13</v>
-      </c>
-      <c r="D510">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4">
-      <c r="A511" s="1">
-        <v>509</v>
-      </c>
-      <c r="B511">
-        <v>48</v>
-      </c>
-      <c r="C511">
-        <v>14</v>
-      </c>
-      <c r="D511">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4">
-      <c r="A512" s="1">
-        <v>510</v>
-      </c>
-      <c r="B512">
-        <v>49</v>
-      </c>
-      <c r="C512">
-        <v>0</v>
-      </c>
-      <c r="D512">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4">
-      <c r="A513" s="1">
-        <v>511</v>
-      </c>
-      <c r="B513">
-        <v>49</v>
-      </c>
-      <c r="C513">
-        <v>1</v>
-      </c>
-      <c r="D513">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4">
-      <c r="A514" s="1">
-        <v>512</v>
-      </c>
-      <c r="B514">
-        <v>49</v>
-      </c>
-      <c r="C514">
-        <v>2</v>
-      </c>
-      <c r="D514">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4">
-      <c r="A515" s="1">
-        <v>513</v>
-      </c>
-      <c r="B515">
-        <v>49</v>
-      </c>
-      <c r="C515">
-        <v>3</v>
-      </c>
-      <c r="D515">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4">
-      <c r="A516" s="1">
-        <v>514</v>
-      </c>
-      <c r="B516">
-        <v>49</v>
-      </c>
-      <c r="C516">
-        <v>4</v>
-      </c>
-      <c r="D516">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4">
-      <c r="A517" s="1">
-        <v>515</v>
-      </c>
-      <c r="B517">
-        <v>49</v>
-      </c>
-      <c r="C517">
-        <v>5</v>
-      </c>
-      <c r="D517">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4">
-      <c r="A518" s="1">
-        <v>516</v>
-      </c>
-      <c r="B518">
-        <v>49</v>
-      </c>
-      <c r="C518">
-        <v>6</v>
-      </c>
-      <c r="D518">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4">
-      <c r="A519" s="1">
-        <v>517</v>
-      </c>
-      <c r="B519">
-        <v>49</v>
-      </c>
-      <c r="C519">
-        <v>7</v>
-      </c>
-      <c r="D519">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4">
-      <c r="A520" s="1">
-        <v>518</v>
-      </c>
-      <c r="B520">
-        <v>49</v>
-      </c>
-      <c r="C520">
-        <v>8</v>
-      </c>
-      <c r="D520">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4">
-      <c r="A521" s="1">
-        <v>519</v>
-      </c>
-      <c r="B521">
-        <v>49</v>
-      </c>
-      <c r="C521">
-        <v>9</v>
-      </c>
-      <c r="D521">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4">
-      <c r="A522" s="1">
-        <v>520</v>
-      </c>
-      <c r="B522">
-        <v>49</v>
-      </c>
-      <c r="C522">
-        <v>10</v>
-      </c>
-      <c r="D522">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4">
-      <c r="A523" s="1">
-        <v>521</v>
-      </c>
-      <c r="B523">
-        <v>49</v>
-      </c>
-      <c r="C523">
-        <v>11</v>
-      </c>
-      <c r="D523">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4">
-      <c r="A524" s="1">
-        <v>522</v>
-      </c>
-      <c r="B524">
-        <v>49</v>
-      </c>
-      <c r="C524">
-        <v>12</v>
-      </c>
-      <c r="D524">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
-        <v>49</v>
-      </c>
-      <c r="C525">
-        <v>13</v>
-      </c>
-      <c r="D525">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="B526">
-        <v>49</v>
-      </c>
-      <c r="C526">
-        <v>14</v>
-      </c>
-      <c r="D526">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4">
-      <c r="A527" s="1">
-        <v>525</v>
-      </c>
-      <c r="B527">
-        <v>50</v>
-      </c>
-      <c r="C527">
-        <v>0</v>
-      </c>
-      <c r="D527">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4">
-      <c r="A528" s="1">
-        <v>526</v>
-      </c>
-      <c r="B528">
-        <v>50</v>
-      </c>
-      <c r="C528">
-        <v>1</v>
-      </c>
-      <c r="D528">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4">
-      <c r="A529" s="1">
-        <v>527</v>
-      </c>
-      <c r="B529">
-        <v>50</v>
-      </c>
-      <c r="C529">
-        <v>2</v>
-      </c>
-      <c r="D529">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4">
-      <c r="A530" s="1">
-        <v>528</v>
-      </c>
-      <c r="B530">
-        <v>50</v>
-      </c>
-      <c r="C530">
-        <v>3</v>
-      </c>
-      <c r="D530">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4">
-      <c r="A531" s="1">
-        <v>529</v>
-      </c>
-      <c r="B531">
-        <v>50</v>
-      </c>
-      <c r="C531">
-        <v>4</v>
-      </c>
-      <c r="D531">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4">
-      <c r="A532" s="1">
-        <v>530</v>
-      </c>
-      <c r="B532">
-        <v>50</v>
-      </c>
-      <c r="C532">
-        <v>5</v>
-      </c>
-      <c r="D532">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4">
-      <c r="A533" s="1">
-        <v>531</v>
-      </c>
-      <c r="B533">
-        <v>50</v>
-      </c>
-      <c r="C533">
-        <v>6</v>
-      </c>
-      <c r="D533">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4">
-      <c r="A534" s="1">
-        <v>532</v>
-      </c>
-      <c r="B534">
-        <v>50</v>
-      </c>
-      <c r="C534">
-        <v>7</v>
-      </c>
-      <c r="D534">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4">
-      <c r="A535" s="1">
-        <v>533</v>
-      </c>
-      <c r="B535">
-        <v>50</v>
-      </c>
-      <c r="C535">
-        <v>8</v>
-      </c>
-      <c r="D535">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4">
-      <c r="A536" s="1">
-        <v>534</v>
-      </c>
-      <c r="B536">
-        <v>50</v>
-      </c>
-      <c r="C536">
-        <v>9</v>
-      </c>
-      <c r="D536">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4">
-      <c r="A537" s="1">
-        <v>535</v>
-      </c>
-      <c r="B537">
-        <v>50</v>
-      </c>
-      <c r="C537">
-        <v>10</v>
-      </c>
-      <c r="D537">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4">
-      <c r="A538" s="1">
-        <v>536</v>
-      </c>
-      <c r="B538">
-        <v>50</v>
-      </c>
-      <c r="C538">
-        <v>11</v>
-      </c>
-      <c r="D538">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4">
-      <c r="A539" s="1">
-        <v>537</v>
-      </c>
-      <c r="B539">
-        <v>50</v>
-      </c>
-      <c r="C539">
-        <v>12</v>
-      </c>
-      <c r="D539">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4">
-      <c r="A540" s="1">
-        <v>538</v>
-      </c>
-      <c r="B540">
-        <v>50</v>
-      </c>
-      <c r="C540">
-        <v>13</v>
-      </c>
-      <c r="D540">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4">
-      <c r="A541" s="1">
-        <v>539</v>
-      </c>
-      <c r="B541">
-        <v>50</v>
-      </c>
-      <c r="C541">
-        <v>14</v>
-      </c>
-      <c r="D541">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4">
-      <c r="A542" s="1">
-        <v>540</v>
-      </c>
-      <c r="B542">
-        <v>51</v>
-      </c>
-      <c r="C542">
-        <v>0</v>
-      </c>
-      <c r="D542">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4">
-      <c r="A543" s="1">
-        <v>541</v>
-      </c>
-      <c r="B543">
-        <v>51</v>
-      </c>
-      <c r="C543">
-        <v>1</v>
-      </c>
-      <c r="D543">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4">
-      <c r="A544" s="1">
-        <v>542</v>
-      </c>
-      <c r="B544">
-        <v>51</v>
-      </c>
-      <c r="C544">
-        <v>2</v>
-      </c>
-      <c r="D544">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4">
-      <c r="A545" s="1">
-        <v>543</v>
-      </c>
-      <c r="B545">
-        <v>51</v>
-      </c>
-      <c r="C545">
-        <v>3</v>
-      </c>
-      <c r="D545">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4">
-      <c r="A546" s="1">
-        <v>544</v>
-      </c>
-      <c r="B546">
-        <v>51</v>
-      </c>
-      <c r="C546">
-        <v>4</v>
-      </c>
-      <c r="D546">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547" spans="1:4">
-      <c r="A547" s="1">
-        <v>545</v>
-      </c>
-      <c r="B547">
-        <v>51</v>
-      </c>
-      <c r="C547">
-        <v>5</v>
-      </c>
-      <c r="D547">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4">
-      <c r="A548" s="1">
-        <v>546</v>
-      </c>
-      <c r="B548">
-        <v>51</v>
-      </c>
-      <c r="C548">
-        <v>6</v>
-      </c>
-      <c r="D548">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4">
-      <c r="A549" s="1">
-        <v>547</v>
-      </c>
-      <c r="B549">
-        <v>51</v>
-      </c>
-      <c r="C549">
-        <v>7</v>
-      </c>
-      <c r="D549">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4">
-      <c r="A550" s="1">
-        <v>548</v>
-      </c>
-      <c r="B550">
-        <v>51</v>
-      </c>
-      <c r="C550">
-        <v>8</v>
-      </c>
-      <c r="D550">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551" spans="1:4">
-      <c r="A551" s="1">
-        <v>549</v>
-      </c>
-      <c r="B551">
-        <v>51</v>
-      </c>
-      <c r="C551">
-        <v>9</v>
-      </c>
-      <c r="D551">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4">
-      <c r="A552" s="1">
-        <v>550</v>
-      </c>
-      <c r="B552">
-        <v>51</v>
-      </c>
-      <c r="C552">
-        <v>10</v>
-      </c>
-      <c r="D552">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4">
-      <c r="A553" s="1">
-        <v>551</v>
-      </c>
-      <c r="B553">
-        <v>51</v>
-      </c>
-      <c r="C553">
-        <v>11</v>
-      </c>
-      <c r="D553">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4">
-      <c r="A554" s="1">
-        <v>552</v>
-      </c>
-      <c r="B554">
-        <v>51</v>
-      </c>
-      <c r="C554">
-        <v>12</v>
-      </c>
-      <c r="D554">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4">
-      <c r="A555" s="1">
-        <v>553</v>
-      </c>
-      <c r="B555">
-        <v>51</v>
-      </c>
-      <c r="C555">
-        <v>13</v>
-      </c>
-      <c r="D555">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4">
-      <c r="A556" s="1">
-        <v>554</v>
-      </c>
-      <c r="B556">
-        <v>51</v>
-      </c>
-      <c r="C556">
-        <v>14</v>
-      </c>
-      <c r="D556">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4">
-      <c r="A557" s="1">
-        <v>555</v>
-      </c>
-      <c r="B557">
-        <v>52</v>
-      </c>
-      <c r="C557">
-        <v>0</v>
-      </c>
-      <c r="D557">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4">
-      <c r="A558" s="1">
-        <v>556</v>
-      </c>
-      <c r="B558">
-        <v>52</v>
-      </c>
-      <c r="C558">
-        <v>1</v>
-      </c>
-      <c r="D558">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4">
-      <c r="A559" s="1">
-        <v>557</v>
-      </c>
-      <c r="B559">
-        <v>52</v>
-      </c>
-      <c r="C559">
-        <v>2</v>
-      </c>
-      <c r="D559">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4">
-      <c r="A560" s="1">
-        <v>558</v>
-      </c>
-      <c r="B560">
-        <v>52</v>
-      </c>
-      <c r="C560">
-        <v>3</v>
-      </c>
-      <c r="D560">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4">
-      <c r="A561" s="1">
-        <v>559</v>
-      </c>
-      <c r="B561">
-        <v>52</v>
-      </c>
-      <c r="C561">
-        <v>4</v>
-      </c>
-      <c r="D561">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4">
-      <c r="A562" s="1">
-        <v>560</v>
-      </c>
-      <c r="B562">
-        <v>52</v>
-      </c>
-      <c r="C562">
-        <v>5</v>
-      </c>
-      <c r="D562">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4">
-      <c r="A563" s="1">
-        <v>561</v>
-      </c>
-      <c r="B563">
-        <v>52</v>
-      </c>
-      <c r="C563">
-        <v>6</v>
-      </c>
-      <c r="D563">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4">
-      <c r="A564" s="1">
-        <v>562</v>
-      </c>
-      <c r="B564">
-        <v>52</v>
-      </c>
-      <c r="C564">
-        <v>7</v>
-      </c>
-      <c r="D564">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4">
-      <c r="A565" s="1">
-        <v>563</v>
-      </c>
-      <c r="B565">
-        <v>52</v>
-      </c>
-      <c r="C565">
-        <v>8</v>
-      </c>
-      <c r="D565">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4">
-      <c r="A566" s="1">
-        <v>564</v>
-      </c>
-      <c r="B566">
-        <v>52</v>
-      </c>
-      <c r="C566">
-        <v>9</v>
-      </c>
-      <c r="D566">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4">
-      <c r="A567" s="1">
-        <v>565</v>
-      </c>
-      <c r="B567">
-        <v>52</v>
-      </c>
-      <c r="C567">
-        <v>10</v>
-      </c>
-      <c r="D567">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4">
-      <c r="A568" s="1">
-        <v>566</v>
-      </c>
-      <c r="B568">
-        <v>52</v>
-      </c>
-      <c r="C568">
-        <v>11</v>
-      </c>
-      <c r="D568">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4">
-      <c r="A569" s="1">
-        <v>567</v>
-      </c>
-      <c r="B569">
-        <v>52</v>
-      </c>
-      <c r="C569">
-        <v>12</v>
-      </c>
-      <c r="D569">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4">
-      <c r="A570" s="1">
-        <v>568</v>
-      </c>
-      <c r="B570">
-        <v>52</v>
-      </c>
-      <c r="C570">
-        <v>13</v>
-      </c>
-      <c r="D570">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4">
-      <c r="A571" s="1">
-        <v>569</v>
-      </c>
-      <c r="B571">
-        <v>52</v>
-      </c>
-      <c r="C571">
-        <v>14</v>
-      </c>
-      <c r="D571">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4">
-      <c r="A572" s="1">
-        <v>570</v>
-      </c>
-      <c r="B572">
-        <v>53</v>
-      </c>
-      <c r="C572">
-        <v>0</v>
-      </c>
-      <c r="D572">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4">
-      <c r="A573" s="1">
-        <v>571</v>
-      </c>
-      <c r="B573">
-        <v>53</v>
-      </c>
-      <c r="C573">
-        <v>1</v>
-      </c>
-      <c r="D573">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4">
-      <c r="A574" s="1">
-        <v>572</v>
-      </c>
-      <c r="B574">
-        <v>53</v>
-      </c>
-      <c r="C574">
-        <v>2</v>
-      </c>
-      <c r="D574">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4">
-      <c r="A575" s="1">
-        <v>573</v>
-      </c>
-      <c r="B575">
-        <v>53</v>
-      </c>
-      <c r="C575">
-        <v>3</v>
-      </c>
-      <c r="D575">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4">
-      <c r="A576" s="1">
-        <v>574</v>
-      </c>
-      <c r="B576">
-        <v>53</v>
-      </c>
-      <c r="C576">
-        <v>4</v>
-      </c>
-      <c r="D576">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4">
-      <c r="A577" s="1">
-        <v>575</v>
-      </c>
-      <c r="B577">
-        <v>53</v>
-      </c>
-      <c r="C577">
-        <v>5</v>
-      </c>
-      <c r="D577">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4">
-      <c r="A578" s="1">
-        <v>576</v>
-      </c>
-      <c r="B578">
-        <v>53</v>
-      </c>
-      <c r="C578">
-        <v>6</v>
-      </c>
-      <c r="D578">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4">
-      <c r="A579" s="1">
-        <v>577</v>
-      </c>
-      <c r="B579">
-        <v>53</v>
-      </c>
-      <c r="C579">
-        <v>7</v>
-      </c>
-      <c r="D579">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4">
-      <c r="A580" s="1">
-        <v>578</v>
-      </c>
-      <c r="B580">
-        <v>53</v>
-      </c>
-      <c r="C580">
-        <v>8</v>
-      </c>
-      <c r="D580">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4">
-      <c r="A581" s="1">
-        <v>579</v>
-      </c>
-      <c r="B581">
-        <v>53</v>
-      </c>
-      <c r="C581">
-        <v>9</v>
-      </c>
-      <c r="D581">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4">
-      <c r="A582" s="1">
-        <v>580</v>
-      </c>
-      <c r="B582">
-        <v>53</v>
-      </c>
-      <c r="C582">
-        <v>10</v>
-      </c>
-      <c r="D582">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4">
-      <c r="A583" s="1">
-        <v>581</v>
-      </c>
-      <c r="B583">
-        <v>53</v>
-      </c>
-      <c r="C583">
-        <v>11</v>
-      </c>
-      <c r="D583">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4">
-      <c r="A584" s="1">
-        <v>582</v>
-      </c>
-      <c r="B584">
-        <v>53</v>
-      </c>
-      <c r="C584">
-        <v>12</v>
-      </c>
-      <c r="D584">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4">
-      <c r="A585" s="1">
-        <v>583</v>
-      </c>
-      <c r="B585">
-        <v>53</v>
-      </c>
-      <c r="C585">
-        <v>13</v>
-      </c>
-      <c r="D585">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4">
-      <c r="A586" s="1">
-        <v>584</v>
-      </c>
-      <c r="B586">
-        <v>53</v>
-      </c>
-      <c r="C586">
-        <v>14</v>
-      </c>
-      <c r="D586">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4">
-      <c r="A587" s="1">
-        <v>585</v>
-      </c>
-      <c r="B587">
-        <v>54</v>
-      </c>
-      <c r="C587">
-        <v>0</v>
-      </c>
-      <c r="D587">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4">
-      <c r="A588" s="1">
-        <v>586</v>
-      </c>
-      <c r="B588">
-        <v>54</v>
-      </c>
-      <c r="C588">
-        <v>1</v>
-      </c>
-      <c r="D588">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4">
-      <c r="A589" s="1">
-        <v>587</v>
-      </c>
-      <c r="B589">
-        <v>54</v>
-      </c>
-      <c r="C589">
-        <v>2</v>
-      </c>
-      <c r="D589">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4">
-      <c r="A590" s="1">
-        <v>588</v>
-      </c>
-      <c r="B590">
-        <v>54</v>
-      </c>
-      <c r="C590">
-        <v>3</v>
-      </c>
-      <c r="D590">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4">
-      <c r="A591" s="1">
-        <v>589</v>
-      </c>
-      <c r="B591">
-        <v>54</v>
-      </c>
-      <c r="C591">
-        <v>4</v>
-      </c>
-      <c r="D591">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4">
-      <c r="A592" s="1">
-        <v>590</v>
-      </c>
-      <c r="B592">
-        <v>54</v>
-      </c>
-      <c r="C592">
-        <v>5</v>
-      </c>
-      <c r="D592">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4">
-      <c r="A593" s="1">
-        <v>591</v>
-      </c>
-      <c r="B593">
-        <v>54</v>
-      </c>
-      <c r="C593">
-        <v>6</v>
-      </c>
-      <c r="D593">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4">
-      <c r="A594" s="1">
-        <v>592</v>
-      </c>
-      <c r="B594">
-        <v>54</v>
-      </c>
-      <c r="C594">
-        <v>7</v>
-      </c>
-      <c r="D594">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4">
-      <c r="A595" s="1">
-        <v>593</v>
-      </c>
-      <c r="B595">
-        <v>54</v>
-      </c>
-      <c r="C595">
-        <v>8</v>
-      </c>
-      <c r="D595">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4">
-      <c r="A596" s="1">
-        <v>594</v>
-      </c>
-      <c r="B596">
-        <v>54</v>
-      </c>
-      <c r="C596">
-        <v>9</v>
-      </c>
-      <c r="D596">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="597" spans="1:4">
-      <c r="A597" s="1">
-        <v>595</v>
-      </c>
-      <c r="B597">
-        <v>54</v>
-      </c>
-      <c r="C597">
-        <v>10</v>
-      </c>
-      <c r="D597">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4">
-      <c r="A598" s="1">
-        <v>596</v>
-      </c>
-      <c r="B598">
-        <v>54</v>
-      </c>
-      <c r="C598">
-        <v>11</v>
-      </c>
-      <c r="D598">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4">
-      <c r="A599" s="1">
-        <v>597</v>
-      </c>
-      <c r="B599">
-        <v>54</v>
-      </c>
-      <c r="C599">
-        <v>12</v>
-      </c>
-      <c r="D599">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4">
-      <c r="A600" s="1">
-        <v>598</v>
-      </c>
-      <c r="B600">
-        <v>54</v>
-      </c>
-      <c r="C600">
-        <v>13</v>
-      </c>
-      <c r="D600">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601" spans="1:4">
-      <c r="A601" s="1">
-        <v>599</v>
-      </c>
-      <c r="B601">
-        <v>54</v>
-      </c>
-      <c r="C601">
-        <v>14</v>
-      </c>
-      <c r="D601">
         <v>1</v>
       </c>
     </row>

--- a/x_optimal_vars_leader.xlsx
+++ b/x_optimal_vars_leader.xlsx
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -814,7 +814,7 @@
         <v>9</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1094,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1276,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1346,7 +1346,7 @@
         <v>7</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1416,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1486,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1654,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1780,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1836,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1906,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2046,7 +2046,7 @@
         <v>7</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2186,7 +2186,7 @@
         <v>7</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2340,7 +2340,7 @@
         <v>8</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2494,7 +2494,7 @@
         <v>9</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2606,7 +2606,7 @@
         <v>7</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2774,7 +2774,7 @@
         <v>9</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2816,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2900,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3040,7 +3040,7 @@
         <v>8</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3194,7 +3194,7 @@
         <v>9</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3306,7 +3306,7 @@
         <v>7</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3376,7 +3376,7 @@
         <v>2</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3460,7 +3460,7 @@
         <v>8</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3516,7 +3516,7 @@
         <v>2</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3586,7 +3586,7 @@
         <v>7</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3726,7 +3726,7 @@
         <v>7</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3796,7 +3796,7 @@
         <v>2</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3866,7 +3866,7 @@
         <v>7</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4034,7 +4034,7 @@
         <v>9</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4160,7 +4160,7 @@
         <v>8</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4286,7 +4286,7 @@
         <v>7</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4426,7 +4426,7 @@
         <v>7</v>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="D292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4566,7 +4566,7 @@
         <v>7</v>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="D302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4734,7 +4734,7 @@
         <v>9</v>
       </c>
       <c r="D311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4846,7 +4846,7 @@
         <v>7</v>
       </c>
       <c r="D319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5000,7 +5000,7 @@
         <v>8</v>
       </c>
       <c r="D330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5126,7 +5126,7 @@
         <v>7</v>
       </c>
       <c r="D339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="D342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5280,7 +5280,7 @@
         <v>8</v>
       </c>
       <c r="D350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="D352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5420,7 +5420,7 @@
         <v>8</v>
       </c>
       <c r="D360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5476,7 +5476,7 @@
         <v>2</v>
       </c>
       <c r="D364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5574,7 +5574,7 @@
         <v>9</v>
       </c>
       <c r="D371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="D372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5686,7 +5686,7 @@
         <v>7</v>
       </c>
       <c r="D379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="D382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5826,7 +5826,7 @@
         <v>7</v>
       </c>
       <c r="D389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="D392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5994,7 +5994,7 @@
         <v>9</v>
       </c>
       <c r="D401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/x_optimal_vars_leader.xlsx
+++ b/x_optimal_vars_leader.xlsx
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -814,7 +814,7 @@
         <v>9</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1094,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1276,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1346,7 +1346,7 @@
         <v>7</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1416,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1486,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1654,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1780,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1836,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1906,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2046,7 +2046,7 @@
         <v>7</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2186,7 +2186,7 @@
         <v>7</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2340,7 +2340,7 @@
         <v>8</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2494,7 +2494,7 @@
         <v>9</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2606,7 +2606,7 @@
         <v>7</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2774,7 +2774,7 @@
         <v>9</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2816,7 +2816,7 @@
         <v>2</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2900,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3040,7 +3040,7 @@
         <v>8</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3194,7 +3194,7 @@
         <v>9</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3306,7 +3306,7 @@
         <v>7</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3376,7 +3376,7 @@
         <v>2</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3460,7 +3460,7 @@
         <v>8</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3516,7 +3516,7 @@
         <v>2</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3586,7 +3586,7 @@
         <v>7</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3726,7 +3726,7 @@
         <v>7</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3796,7 +3796,7 @@
         <v>2</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3866,7 +3866,7 @@
         <v>7</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4034,7 +4034,7 @@
         <v>9</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4160,7 +4160,7 @@
         <v>8</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4286,7 +4286,7 @@
         <v>7</v>
       </c>
       <c r="D279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4426,7 +4426,7 @@
         <v>7</v>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4566,7 +4566,7 @@
         <v>7</v>
       </c>
       <c r="D299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4734,7 +4734,7 @@
         <v>9</v>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4846,7 +4846,7 @@
         <v>7</v>
       </c>
       <c r="D319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5000,7 +5000,7 @@
         <v>8</v>
       </c>
       <c r="D330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5126,7 +5126,7 @@
         <v>7</v>
       </c>
       <c r="D339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="D342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5280,7 +5280,7 @@
         <v>8</v>
       </c>
       <c r="D350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="D352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5420,7 +5420,7 @@
         <v>8</v>
       </c>
       <c r="D360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5476,7 +5476,7 @@
         <v>2</v>
       </c>
       <c r="D364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5574,7 +5574,7 @@
         <v>9</v>
       </c>
       <c r="D371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="D372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5686,7 +5686,7 @@
         <v>7</v>
       </c>
       <c r="D379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="D382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5826,7 +5826,7 @@
         <v>7</v>
       </c>
       <c r="D389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="D392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5994,7 +5994,7 @@
         <v>9</v>
       </c>
       <c r="D401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
